--- a/static/MedicineUploads/NotExpirySearchList.xlsx
+++ b/static/MedicineUploads/NotExpirySearchList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="113">
   <si>
     <t>Drug Name</t>
   </si>
@@ -64,19 +64,19 @@
     <t>TotalQuantity</t>
   </si>
   <si>
-    <t>ALLOPURINOL-100 MG</t>
+    <t>ANTACID TABLETS</t>
   </si>
   <si>
     <t>Tablet</t>
   </si>
   <si>
-    <t>AKT2073</t>
-  </si>
-  <si>
-    <t>31-10-2018</t>
-  </si>
-  <si>
-    <t>31-10-2019</t>
+    <t>ZD1811029</t>
+  </si>
+  <si>
+    <t>30-09-2018</t>
+  </si>
+  <si>
+    <t>30-09-2020</t>
   </si>
   <si>
     <t>0</t>
@@ -85,115 +85,274 @@
     <t>R1</t>
   </si>
   <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>AZYTHROMYCIN 500 MG</t>
+  </si>
+  <si>
+    <t>8443017</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>IBUPROFEN PARACETAMOL 400 MG</t>
+  </si>
+  <si>
+    <t>C171217</t>
+  </si>
+  <si>
+    <t>30-09-2019</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>TRAMSULOSIN HYDROCHLORIDE 0.4 MG  AND FINASTERIDE 5 MG</t>
+  </si>
+  <si>
+    <t>Capsule</t>
+  </si>
+  <si>
+    <t>FT181105</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>METFORMIN HYDROCHLORIDE-500 MG</t>
+  </si>
+  <si>
+    <t>IZD16033</t>
+  </si>
+  <si>
+    <t>30-10-2018</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>TR2 L</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>PARACETAMOL PAEDIATRIC SYR 60 ML</t>
+  </si>
+  <si>
+    <t>Syrup</t>
+  </si>
+  <si>
+    <t>SO180055</t>
+  </si>
+  <si>
+    <t>01-10-2018</t>
+  </si>
+  <si>
+    <t>SR1</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOSARTAN 50 MG                                  </t>
+  </si>
+  <si>
+    <t>ZD181045</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>CLOMIFEN 25 MG</t>
+  </si>
+  <si>
+    <t>SA74279</t>
+  </si>
+  <si>
+    <t>30-08-2018</t>
+  </si>
+  <si>
+    <t>30-08-2020</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>CLOPIDOGRAL TABLETS 75 MG</t>
+  </si>
+  <si>
+    <t>MOT18557</t>
+  </si>
+  <si>
+    <t>30-08-2019</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>GLIMEPERIDE TABLET 2 MG</t>
+  </si>
+  <si>
+    <t>TPPKAJ03</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>RAMIPRIL TABLETS 5 MG</t>
+  </si>
+  <si>
+    <t>BA83472</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>TRANEXAMIC ACID  500 MG</t>
+  </si>
+  <si>
+    <t>AKT3545</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITAMIN A AND D </t>
+  </si>
+  <si>
+    <t>VHF18073</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>Progesteron 100 MG</t>
+  </si>
+  <si>
+    <t>DM660</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>PPKAJ03</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>VTF1808073</t>
+  </si>
+  <si>
+    <t>CR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENAPRIL MALEAT 5 MG                  </t>
+  </si>
+  <si>
+    <t>V801009</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACICLOVIR TABLETS  400mg                </t>
+  </si>
+  <si>
+    <t>VPT-18411D</t>
+  </si>
+  <si>
+    <t>31-07-2018</t>
+  </si>
+  <si>
+    <t>31-07-2020</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>CLOTRIMAZOLE VAGINAL TABLETS 100MG</t>
+  </si>
+  <si>
+    <t>ZD18776</t>
+  </si>
+  <si>
+    <t>31-07-2019</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>DIGOXIN  0.25 MG</t>
+  </si>
+  <si>
+    <t>T-11669</t>
+  </si>
+  <si>
+    <t>30-07-2019</t>
+  </si>
+  <si>
+    <t>30-07-2020</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DICLOXACILLIN SODIUM  250 MG  </t>
+  </si>
+  <si>
+    <t>KD1902001</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>MUCAINE GEL SYR 200 ML</t>
+  </si>
+  <si>
+    <t>ZA18495</t>
+  </si>
+  <si>
+    <t>01-08-2018</t>
+  </si>
+  <si>
+    <t>S2 L1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>DOMPERIDOM  10 MG</t>
+  </si>
+  <si>
+    <t>ZT1808</t>
+  </si>
+  <si>
+    <t>TR1 L</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>DICLOXACILLIAN SODIUM CAPS 500MG</t>
+  </si>
+  <si>
+    <t>28-02-2019</t>
+  </si>
+  <si>
+    <t>CR3 L</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>60</t>
-  </si>
-  <si>
-    <t>MEBENDAZOLE  100 MG</t>
-  </si>
-  <si>
-    <t>001A8ABC</t>
-  </si>
-  <si>
-    <t>30-10-2018</t>
-  </si>
-  <si>
-    <t>30-10-2019</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIFAMPICIN AND ISONICID CAPSULES USP 450 plus 300MG  </t>
-  </si>
-  <si>
-    <t>Capsule</t>
-  </si>
-  <si>
-    <t>A706979</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>HALOPERIDOL  5 MG (serenes)</t>
-  </si>
-  <si>
-    <t>LOT27S17015</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENICILLIN G POTASSIUM   400 MG </t>
-  </si>
-  <si>
-    <t>VVD0226</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>Setraline HydroChrloride 50mg</t>
-  </si>
-  <si>
-    <t>HT3073</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFLOXACIN 200 MG                 </t>
-  </si>
-  <si>
-    <t>17NT1032</t>
-  </si>
-  <si>
-    <t>30-09-2018</t>
-  </si>
-  <si>
-    <t>30-09-2019</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>QUETIAPINE          50 MG</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMOXICILLIN TRIHYDRATE T-125 </t>
-  </si>
-  <si>
-    <t>ASK7002R</t>
-  </si>
-  <si>
-    <t>31-08-2018</t>
-  </si>
-  <si>
-    <t>31-08-2019</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">METOCLOPROMAMIDE HYDROCHLORIC 10 Mg         </t>
-  </si>
-  <si>
-    <t>T1709192</t>
-  </si>
-  <si>
-    <t>30-08-2019</t>
-  </si>
-  <si>
-    <t>89</t>
   </si>
 </sst>
 </file>
@@ -534,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,7 +796,7 @@
         <v>23</v>
       </c>
       <c r="P2">
-        <v>60</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -651,10 +810,10 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -684,77 +843,77 @@
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P3">
-        <v>792</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
       <c r="P4">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -784,33 +943,33 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P5">
-        <v>303</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
@@ -834,83 +993,83 @@
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P6">
-        <v>206</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" t="s">
-        <v>42</v>
-      </c>
       <c r="P7">
-        <v>86</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
@@ -934,33 +1093,33 @@
         <v>21</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P8">
-        <v>190</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
@@ -984,27 +1143,27 @@
         <v>21</v>
       </c>
       <c r="O9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P9">
-        <v>101</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -1034,24 +1193,24 @@
         <v>21</v>
       </c>
       <c r="O10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="P10">
-        <v>90</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
         <v>54</v>
@@ -1084,27 +1243,27 @@
         <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P11">
-        <v>300</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -1134,10 +1293,810 @@
         <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P12">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
         <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" t="s">
+        <v>112</v>
+      </c>
+      <c r="P28">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
